--- a/doc/ue_controller.xlsx
+++ b/doc/ue_controller.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFEBEC7-FF4A-4323-8FEC-E274DE387CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,172 +36,173 @@
     <t>AAIController</t>
   </si>
   <si>
+    <t>拥有UInputComponent* InputComponent，可以进行输入监听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无UInputComponent* InputComponent，无法进行输入监听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质还是AACtor，需要加到场景中,但是和PAWN等可以完全独立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WidgetComponent</t>
+  </si>
+  <si>
+    <t>可以放置UI，类似头顶面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_20309931/article/details/53338714</t>
+  </si>
+  <si>
+    <t>PostInitializeComponents()</t>
+  </si>
+  <si>
+    <t>将自己加入到WORLD里面，WORLD里面保存所有controller列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将自己加入到WORLD里面，WORLD里面保存所有playercontroller列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorld::SpawnActor</t>
+  </si>
+  <si>
+    <t>AActor::PostSpawnInitialize</t>
+  </si>
+  <si>
+    <t>AActor::FinishSpawning</t>
+  </si>
+  <si>
+    <t>AActor::PostActorConstruction()</t>
+  </si>
+  <si>
+    <t>创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>FCoreUObjectDelegates::PreLoadMap.Broadcast(URL.Map);</t>
+  </si>
+  <si>
+    <t>FlushAsyncLoading();</t>
+  </si>
+  <si>
+    <t>// Unload the current world</t>
+  </si>
+  <si>
+    <t>ShutdownWorldNetDriver(WorldContext.World());</t>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;FlushLevelStreaming(EFlushLevelStreamingType::Visibility);</t>
+  </si>
+  <si>
+    <t>FWorldDelegates::LevelRemovedFromWorld.Broadcast(nullptr, WorldContext.World());</t>
+  </si>
+  <si>
+    <t>// Disassociate the players from their PlayerControllers in this world.</t>
+  </si>
+  <si>
+    <t>删除所有LocalPlayer的PlayerController对应的Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除所有LocalPlayer的PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挨个遍历Actor,执行ActorIt-&gt;RouteEndPlay(EEndPlayReason::LevelTransition);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">先执行Actor::EndPlay </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在执行UninitializeComponents();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;CleanupWorld();</t>
+  </si>
+  <si>
+    <t>GEngine-&gt;WorldDestroyed(WorldContext.World());</t>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;RemoveFromRoot();</t>
+  </si>
+  <si>
+    <t>TrimMemory();</t>
+  </si>
+  <si>
+    <t>CollectGarbage(GARBAGE_COLLECTION_KEEPFLAGS, true);</t>
+  </si>
+  <si>
+    <t>强制GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个地方销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBrowseReturnVal::Type UEngine::Browse( FWorldContext&amp; WorldContext, FURL URL, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>LoadMap( WorldContext, URL, NULL, Error )</t>
+  </si>
+  <si>
+    <t>UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>先卸载完当前的World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载当前的World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挨个为LocalPlayer 创建Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!(*It)-&gt;SpawnPlayActor(URL.ToString(1),Error2,WorldContext.World()))</t>
+  </si>
+  <si>
+    <t>调用beginPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerController = InWorld-&gt;SpawnPlayActor(this, ROLE_SimulatedProxy, PlayerURL, UniqueId, OutError, GEngine-&gt;GetGamePlayers(InWorld).Find(this));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完全依赖于World,在切换场景的时候，需要销毁当前所有的Controller </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>APlayerController</t>
-  </si>
-  <si>
-    <t>拥有UInputComponent* InputComponent，可以进行输入监听</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无UInputComponent* InputComponent，无法进行输入监听</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本质还是AACtor，需要加到场景中,但是和PAWN等可以完全独立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WidgetComponent</t>
-  </si>
-  <si>
-    <t>可以放置UI，类似头顶面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_20309931/article/details/53338714</t>
-  </si>
-  <si>
-    <t>PostInitializeComponents()</t>
-  </si>
-  <si>
-    <t>将自己加入到WORLD里面，WORLD里面保存所有controller列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将自己加入到WORLD里面，WORLD里面保存所有playercontroller列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UWorld::SpawnActor</t>
-  </si>
-  <si>
-    <t>AActor::PostSpawnInitialize</t>
-  </si>
-  <si>
-    <t>AActor::FinishSpawning</t>
-  </si>
-  <si>
-    <t>AActor::PostActorConstruction()</t>
-  </si>
-  <si>
-    <t>创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
-  </si>
-  <si>
-    <t>FCoreUObjectDelegates::PreLoadMap.Broadcast(URL.Map);</t>
-  </si>
-  <si>
-    <t>FlushAsyncLoading();</t>
-  </si>
-  <si>
-    <t>// Unload the current world</t>
-  </si>
-  <si>
-    <t>ShutdownWorldNetDriver(WorldContext.World());</t>
-  </si>
-  <si>
-    <t>WorldContext.World()-&gt;FlushLevelStreaming(EFlushLevelStreamingType::Visibility);</t>
-  </si>
-  <si>
-    <t>FWorldDelegates::LevelRemovedFromWorld.Broadcast(nullptr, WorldContext.World());</t>
-  </si>
-  <si>
-    <t>// Disassociate the players from their PlayerControllers in this world.</t>
-  </si>
-  <si>
-    <t>删除所有LocalPlayer的PlayerController对应的Pawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除所有LocalPlayer的PlayerController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挨个遍历Actor,执行ActorIt-&gt;RouteEndPlay(EEndPlayReason::LevelTransition);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">先执行Actor::EndPlay </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在执行UninitializeComponents();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorldContext.World()-&gt;CleanupWorld();</t>
-  </si>
-  <si>
-    <t>GEngine-&gt;WorldDestroyed(WorldContext.World());</t>
-  </si>
-  <si>
-    <t>WorldContext.World()-&gt;RemoveFromRoot();</t>
-  </si>
-  <si>
-    <t>TrimMemory();</t>
-  </si>
-  <si>
-    <t>CollectGarbage(GARBAGE_COLLECTION_KEEPFLAGS, true);</t>
-  </si>
-  <si>
-    <t>强制GC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个地方销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBrowseReturnVal::Type UEngine::Browse( FWorldContext&amp; WorldContext, FURL URL, FString&amp; Error )</t>
-  </si>
-  <si>
-    <t>LoadMap( WorldContext, URL, NULL, Error )</t>
-  </si>
-  <si>
-    <t>UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
-  </si>
-  <si>
-    <t>先卸载完当前的World</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载当前的World</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挨个为LocalPlayer 创建Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!(*It)-&gt;SpawnPlayActor(URL.ToString(1),Error2,WorldContext.World()))</t>
-  </si>
-  <si>
-    <t>调用beginPlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerController = InWorld-&gt;SpawnPlayActor(this, ROLE_SimulatedProxy, PlayerURL, UniqueId, OutError, GEngine-&gt;GetGamePlayers(InWorld).Find(this));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">完全依赖于World,在切换场景的时候，需要销毁当前所有的Controller </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -588,12 +588,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
@@ -601,51 +601,51 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -658,75 +658,75 @@
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
         <v>39</v>
-      </c>
-      <c r="D39" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
@@ -740,106 +740,106 @@
     </row>
     <row r="50" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C53" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D59" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D60" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_controller.xlsx
+++ b/doc/ue_controller.xlsx
@@ -188,14 +188,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">完全依赖于World,在切换场景的时候，需要销毁当前所有的Controller </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PlayerController = InWorld-&gt;SpawnPlayActor(this, ROLE_SimulatedProxy, PlayerURL, UniqueId, OutError, GEngine-&gt;GetGamePlayers(InWorld).Find(this));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">完全依赖于World,在切换场景的时候，需要销毁当前所有的Controller </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APlayerController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -634,7 +635,7 @@
     </row>
     <row r="24" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>3</v>
@@ -671,7 +672,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
@@ -714,7 +715,7 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
@@ -743,7 +744,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">

--- a/doc/ue_controller.xlsx
+++ b/doc/ue_controller.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340AA6D9-9C90-4684-B7B6-90ED59D5D3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="整体游戏玩家构造流程" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="132">
   <si>
     <t>SetupInputComponent</t>
   </si>
@@ -197,13 +199,297 @@
   </si>
   <si>
     <t>PlayerController = InWorld-&gt;SpawnPlayActor(this, ROLE_SimulatedProxy, PlayerURL, UniqueId, OutError, GEngine-&gt;GetGamePlayers(InWorld).Find(this));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要讲：进入游戏后，对应玩家对象的创建流程，涉及创建和事件绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家的蓝图类可以再每个场景自己的GameMode构造里面设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选角的场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMyGameModeBase::AMyGameModeBase()</t>
+  </si>
+  <si>
+    <t>: Super()</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>对于客户端默认都是1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultPawnClass = APawn::StaticClass();</t>
+  </si>
+  <si>
+    <t>不需要玩家对象,也不需要响应输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎启动的是否，初始化GameInstance里面localplayers个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>引擎初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UGameEngine::Init(IEngineLoop* InEngineLoop)</t>
+  </si>
+  <si>
+    <t>创建和初始化客户端的视野范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏内场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUE5_Test002GameMode::AUE5_Test002GameMode()</t>
+  </si>
+  <si>
+    <t>// Initialize the viewport client.</t>
+  </si>
+  <si>
+    <t>需要用我们自己的蓝图类，一般会在蓝图里面设置好组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGameViewportClient* ViewportClient = NULL;</t>
+  </si>
+  <si>
+    <t>if(GIsClient)</t>
+  </si>
+  <si>
+    <t>// set default pawn class to our Blueprinted character</t>
+  </si>
+  <si>
+    <t>static ConstructorHelpers::FClassFinder&lt;APawn&gt; PlayerPawnClassFinder(TEXT("/Game/FirstPerson/Blueprints/BP_FirstPersonCharacter"));</t>
+  </si>
+  <si>
+    <t>ViewportClient = NewObject&lt;UGameViewportClient&gt;(this, GameViewportClientClass);</t>
+  </si>
+  <si>
+    <t>DefaultPawnClass = PlayerPawnClassFinder.Class;</t>
+  </si>
+  <si>
+    <t>ViewportClient-&gt;Init(*GameInstance-&gt;GetWorldContext(), GameInstance);</t>
+  </si>
+  <si>
+    <t>GameViewport = ViewportClient;</t>
+  </si>
+  <si>
+    <t>GameInstance-&gt;GetWorldContext()-&gt;GameViewport = ViewportClient;</t>
+  </si>
+  <si>
+    <t>CreateGameViewport( ViewportClient );</t>
+  </si>
+  <si>
+    <t>创建Sview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建localplayers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString Error;</t>
+  </si>
+  <si>
+    <t>if(ViewportClient-&gt;SetupInitialLocalPlayer(Error) == NULL)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogEngine, Fatal,TEXT("%s"),*Error);</t>
+  </si>
+  <si>
+    <t>ULocalPlayer* UGameInstance::CreateLocalPlayer(int32 ControllerId, FString&amp; OutError, bool bSpawnPlayerController)</t>
+  </si>
+  <si>
+    <t>根据GetEngine()-&gt;LocalPlayerClass，可以配置的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次加载场景的时候，都会根据gameinstance::localplayers个数，创建对应的player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据localplayers创建玩家对应的Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (WorldContext.OwningGameInstance != NULL)</t>
+  </si>
+  <si>
+    <t>for(auto It = WorldContext.OwningGameInstance-&gt;GetLocalPlayerIterator(); It; ++It)</t>
+  </si>
+  <si>
+    <t>FString Error2;</t>
+  </si>
+  <si>
+    <t>注意，这个是调用的LocalPlayer的接口，内部创建的PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE_LOG(LogEngine, Fatal, TEXT("Couldn't spawn player: %s"), *Error2);</t>
+  </si>
+  <si>
+    <t>LocalPlayer的创建接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool ULocalPlayer::SpawnPlayActor(const FString&amp; URL,FString&amp; OutError, UWorld* InWorld)</t>
+  </si>
+  <si>
+    <t>其创建的是内部的PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerController = InWorld-&gt;SpawnPlayActor(this, ROLE_SimulatedProxy, PlayerURL, UniqueId, OutError, GEngine-&gt;GetGamePlayers(InWorld).Find(this));</t>
+  </si>
+  <si>
+    <t>创建PlayerControllr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APlayerController* UWorld::SpawnPlayActor(UPlayer* NewPlayer, ENetRole RemoteRole, const FURL&amp; InURL, const FUniqueNetIdRepl&amp; UniqueId, FString&amp; Error, uint8 InNetPlayerIndex)</t>
+  </si>
+  <si>
+    <t>先创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APlayerController* const NewPlayerController = GameMode-&gt;Login(NewPlayer, RemoteRole, *InURL.Portal, Options, UniqueId, Error);</t>
+  </si>
+  <si>
+    <t>将PlayerController和localplayer绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewPlayerController-&gt;SetPlayer(NewPlayer);</t>
+  </si>
+  <si>
+    <t>调度GameMode的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMode-&gt;PostLogin(NewPlayerController);</t>
+  </si>
+  <si>
+    <t>返回NewPlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMode的PostLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::PostLogin(APlayerController* NewPlayer)</t>
+  </si>
+  <si>
+    <t>HandleStartingNewPlayer(NewPlayer);</t>
+  </si>
+  <si>
+    <t>调度到蓝图的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::HandleStartingNewPlayer_Implementation(APlayerController* NewPlayer)</t>
+  </si>
+  <si>
+    <t>调度下面的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestartPlayer(NewPlayer);</t>
+  </si>
+  <si>
+    <t>创建玩家Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameModeBase::RestartPlayer(AController* NewPlayer)</t>
+  </si>
+  <si>
+    <t>先找到一个玩家进入点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AActor* StartSpot = FindPlayerStart(NewPlayer);</t>
+  </si>
+  <si>
+    <t>调用下面的e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestartPlayerAtPlayerStart(NewPlayer, StartSpot);</t>
+  </si>
+  <si>
+    <t>void AGameModeBase::RestartPlayerAtPlayerStart(AController* NewPlayer, AActor* StartSpot)</t>
+  </si>
+  <si>
+    <t>创建和绑定，这个时候playercontroller和玩家的pawn就绑定在一起了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APawn* NewPawn = SpawnDefaultPawnFor(NewPlayer, StartSpot);</t>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会根据设置的PawnClass，然后创建他，也就会到我们的class类了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (IsValid(NewPawn))</t>
+  </si>
+  <si>
+    <t>NewPlayer-&gt;SetPawn(NewPawn);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">controller和pawn绑定 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我们Pawn类的构造里面就可以设置很多东西，一般这个是蓝图类做的，有自己很多控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如人物的Mesh，头顶面板，人物信息，武器，挂件，骑乘等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来会调用输入事件绑定函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AUE5_Test002Character::SetupPlayerInputComponent(class UInputComponent* PlayerInputComponent)</t>
+  </si>
+  <si>
+    <t>在这个里面需要绑定玩家鼠标键盘等回调</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,11 +857,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -848,4 +1134,534 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E733C-ACEF-40AF-9EC7-03C260A6D6F8}">
+  <dimension ref="A2:T97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D24" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E39" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>44</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D54" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D59" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D61" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D63" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D85" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>121</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>125</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D93" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C95" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D96" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D97" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_controller.xlsx
+++ b/doc/ue_controller.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340AA6D9-9C90-4684-B7B6-90ED59D5D3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6CDC9A-7435-4170-A070-FDCDD2710E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="134">
   <si>
     <t>SetupInputComponent</t>
   </si>
@@ -483,6 +483,14 @@
   </si>
   <si>
     <t>在这个里面需要绑定玩家鼠标键盘等回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！一般不要这么弄，因为角色PAWNCLASS牵扯到职业等，不能用通用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -860,7 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1140,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E733C-ACEF-40AF-9EC7-03C260A6D6F8}">
   <dimension ref="A2:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1575,12 +1583,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>7</v>
       </c>
@@ -1588,17 +1596,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D85" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
         <v>121</v>
       </c>
@@ -1609,30 +1617,36 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P88" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
         <v>125</v>
       </c>
       <c r="L89" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>8</v>
       </c>
@@ -1640,17 +1654,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D93" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D96" s="3" t="s">
         <v>130</v>
       </c>

--- a/doc/ue_controller.xlsx
+++ b/doc/ue_controller.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6CDC9A-7435-4170-A070-FDCDD2710E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9FA5DD-7965-4E6A-B99F-E59CCB44D1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="整体游戏玩家构造流程" sheetId="2" r:id="rId2"/>
+    <sheet name="DS下创建" sheetId="3" r:id="rId3"/>
+    <sheet name="独立客户端下创建" sheetId="4" r:id="rId4"/>
+    <sheet name="DS客户端下创建" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="155">
   <si>
     <t>SetupInputComponent</t>
   </si>
@@ -491,6 +494,89 @@
   </si>
   <si>
     <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Loadmap的时候会所有LocalPlayer生成PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在GameMode::Login生成PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在该函数里面判断是否生成对应的PAWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！一般都配置PAWN CLASS为空，此处不创建对应的PAWN，而是等场景BeginPlayer时根据职业动态创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意这个地方，如果设置了AutoProcessPlayer，就会和LoalPlayer-PlayerController挂钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态创建的Pawn或者Character，需要设置AutoprocessPlayer标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有LocalPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的PlayerController完全都是通过客户端连接后创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！对应的Pawn何时创建？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是会有一个LocalPlayer，在LoadMap时确实会多创建一份PlayerController，后续根据网络再次创建时会清掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在LoadMap默认根据LocalPlayer创建PlayerController时，这块和独立客户端不一样，仅仅会创建PC，后续不会判断创建对应的PWAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并且这个创建的，后续也需要清掉的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而当服务器下发销毁创建PlayerController时，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">会将1里面创建的PC干掉，用上新的PC，LocalPlayer里面的PC也会替换掉 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这部分本质上有GameMode创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质其实是使用GameMode来创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAWN和Controller对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC和PAWN怎么联系起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APawn::OnRep_Controller()</t>
+  </si>
+  <si>
+    <t>在服务器的回调里面将两者关联起来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,6 +687,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>93428</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>27596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A933C2C-480C-4BE9-909F-1D4C66063BAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="3238500"/>
+          <a:ext cx="14571428" cy="7828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>474905</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>170705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F744F291-7256-2975-C8D6-1F92547504F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="13211175"/>
+          <a:ext cx="10761905" cy="5961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -868,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1148,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E733C-ACEF-40AF-9EC7-03C260A6D6F8}">
   <dimension ref="A2:T97"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
@@ -1678,4 +1857,250 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3AC4A-34F4-49D5-ACD1-09D58E6E7F8E}">
+  <dimension ref="B3:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="J4" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4623DC-8252-4D22-BAA9-53EB3DCF23F1}">
+  <dimension ref="A2:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M4" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M11" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88999984-95BE-45C7-902F-6B5BBD8DAF8B}">
+  <dimension ref="A3:Q75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="J4" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="Q12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_controller.xlsx
+++ b/doc/ue_controller.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9FA5DD-7965-4E6A-B99F-E59CCB44D1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4ABB3B-2521-48FA-941C-65791EF34FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="DS下创建" sheetId="3" r:id="rId3"/>
     <sheet name="独立客户端下创建" sheetId="4" r:id="rId4"/>
     <sheet name="DS客户端下创建" sheetId="5" r:id="rId5"/>
+    <sheet name="DS-客户端-SpectatorPawn" sheetId="6" r:id="rId6"/>
+    <sheet name="编辑器模式和非编辑器模式不同" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -573,10 +575,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>在服务器的回调里面将两者关联起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>void APawn::OnRep_Controller()</t>
-  </si>
-  <si>
-    <t>在服务器的回调里面将两者关联起来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1973,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88999984-95BE-45C7-902F-6B5BBD8DAF8B}">
   <dimension ref="A3:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2085,12 +2088,12 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="11:11" x14ac:dyDescent="0.2">
@@ -2103,4 +2106,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596EAA3A-04A5-439E-9352-825D0891E340}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00C9332-D603-4A95-A16F-C4C7BD4F25EE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_controller.xlsx
+++ b/doc/ue_controller.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4ABB3B-2521-48FA-941C-65791EF34FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7974DB95-1BDE-4EB3-923B-BD6E9D73A239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4623DC-8252-4D22-BAA9-53EB3DCF23F1}">
   <dimension ref="A2:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2127,7 +2127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00C9332-D603-4A95-A16F-C4C7BD4F25EE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
